--- a/Code/Results/Cases/Case_4_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004436227007248</v>
+        <v>1.03593698750209</v>
       </c>
       <c r="D2">
-        <v>1.024089465361966</v>
+        <v>1.042376069805158</v>
       </c>
       <c r="E2">
-        <v>1.022236273036304</v>
+        <v>1.048926541866687</v>
       </c>
       <c r="F2">
-        <v>1.02915594370675</v>
+        <v>1.055187971965981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044630312581143</v>
+        <v>1.034200394410536</v>
       </c>
       <c r="J2">
-        <v>1.026485056090636</v>
+        <v>1.041048038162894</v>
       </c>
       <c r="K2">
-        <v>1.035223094782639</v>
+        <v>1.045152932583596</v>
       </c>
       <c r="L2">
-        <v>1.0333942752146</v>
+        <v>1.051685025127399</v>
       </c>
       <c r="M2">
-        <v>1.040223500776308</v>
+        <v>1.057929117875372</v>
       </c>
       <c r="N2">
-        <v>1.012593682177801</v>
+        <v>1.017610318966543</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008689408996656</v>
+        <v>1.036853001531433</v>
       </c>
       <c r="D3">
-        <v>1.027189706322067</v>
+        <v>1.043063750560743</v>
       </c>
       <c r="E3">
-        <v>1.026015871641019</v>
+        <v>1.049796540051587</v>
       </c>
       <c r="F3">
-        <v>1.032979382495668</v>
+        <v>1.056066075677844</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045478365946283</v>
+        <v>1.034321600963353</v>
       </c>
       <c r="J3">
-        <v>1.028945962625438</v>
+        <v>1.04160797694474</v>
       </c>
       <c r="K3">
-        <v>1.037486119440961</v>
+        <v>1.045651755013737</v>
       </c>
       <c r="L3">
-        <v>1.036326353619683</v>
+        <v>1.052367017186028</v>
       </c>
       <c r="M3">
-        <v>1.043206983507309</v>
+        <v>1.058620448208254</v>
       </c>
       <c r="N3">
-        <v>1.013429525233744</v>
+        <v>1.017798480631754</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011389907276734</v>
+        <v>1.037446408948675</v>
       </c>
       <c r="D4">
-        <v>1.029160324381322</v>
+        <v>1.04350911122926</v>
       </c>
       <c r="E4">
-        <v>1.0284212378073</v>
+        <v>1.050360492172367</v>
       </c>
       <c r="F4">
-        <v>1.03541224918807</v>
+        <v>1.056635213038827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046006293860389</v>
+        <v>1.034398796860583</v>
       </c>
       <c r="J4">
-        <v>1.03050667832924</v>
+        <v>1.04197034835639</v>
       </c>
       <c r="K4">
-        <v>1.038919101358041</v>
+        <v>1.045974233307898</v>
       </c>
       <c r="L4">
-        <v>1.038188330196101</v>
+        <v>1.052808675002547</v>
       </c>
       <c r="M4">
-        <v>1.045101270253282</v>
+        <v>1.059068089554908</v>
       </c>
       <c r="N4">
-        <v>1.013959331891618</v>
+        <v>1.017920186398779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012513256249505</v>
+        <v>1.037696040117263</v>
       </c>
       <c r="D5">
-        <v>1.029980524324177</v>
+        <v>1.043696431417422</v>
       </c>
       <c r="E5">
-        <v>1.029423116031814</v>
+        <v>1.050597816603435</v>
       </c>
       <c r="F5">
-        <v>1.036425482022795</v>
+        <v>1.056874703015495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046223333571932</v>
+        <v>1.034430954255274</v>
       </c>
       <c r="J5">
-        <v>1.031155438115719</v>
+        <v>1.042122700950344</v>
       </c>
       <c r="K5">
-        <v>1.039514213176393</v>
+        <v>1.046109731749914</v>
       </c>
       <c r="L5">
-        <v>1.038962906743011</v>
+        <v>1.052994433540726</v>
       </c>
       <c r="M5">
-        <v>1.04588920336508</v>
+        <v>1.059256349378941</v>
       </c>
       <c r="N5">
-        <v>1.014179489903436</v>
+        <v>1.017971339700079</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0127011829024</v>
+        <v>1.037737963790832</v>
       </c>
       <c r="D6">
-        <v>1.030117762565369</v>
+        <v>1.043727888563547</v>
       </c>
       <c r="E6">
-        <v>1.029590796907251</v>
+        <v>1.050637678383905</v>
       </c>
       <c r="F6">
-        <v>1.036595057299129</v>
+        <v>1.056914927558384</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046259490426128</v>
+        <v>1.034436336261961</v>
       </c>
       <c r="J6">
-        <v>1.031263941869407</v>
+        <v>1.042148282270443</v>
       </c>
       <c r="K6">
-        <v>1.039613711569137</v>
+        <v>1.046132478309454</v>
       </c>
       <c r="L6">
-        <v>1.039092487755055</v>
+        <v>1.053025628195289</v>
       </c>
       <c r="M6">
-        <v>1.046021013749366</v>
+        <v>1.059287963176081</v>
       </c>
       <c r="N6">
-        <v>1.014216306520208</v>
+        <v>1.017979927859151</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011404963906947</v>
+        <v>1.037449743894952</v>
       </c>
       <c r="D7">
-        <v>1.029171316033448</v>
+        <v>1.043511613857024</v>
       </c>
       <c r="E7">
-        <v>1.0284346612463</v>
+        <v>1.050363662376176</v>
       </c>
       <c r="F7">
-        <v>1.035425825158458</v>
+        <v>1.056638412235151</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046009213106309</v>
+        <v>1.034399227712168</v>
       </c>
       <c r="J7">
-        <v>1.030515375752941</v>
+        <v>1.041972384054893</v>
       </c>
       <c r="K7">
-        <v>1.038927081762505</v>
+        <v>1.04597604412696</v>
       </c>
       <c r="L7">
-        <v>1.038198712020979</v>
+        <v>1.052811156782658</v>
       </c>
       <c r="M7">
-        <v>1.045111831438043</v>
+        <v>1.059070604813176</v>
       </c>
       <c r="N7">
-        <v>1.013962283671803</v>
+        <v>1.017920869958641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005884546605319</v>
+        <v>1.036246416084429</v>
       </c>
       <c r="D8">
-        <v>1.025144691941597</v>
+        <v>1.042608393971097</v>
       </c>
       <c r="E8">
-        <v>1.023522136916123</v>
+        <v>1.049220352706584</v>
       </c>
       <c r="F8">
-        <v>1.030456803674582</v>
+        <v>1.055484534402783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04492127823014</v>
+        <v>1.034241611632089</v>
       </c>
       <c r="J8">
-        <v>1.027323416929921</v>
+        <v>1.041237260296055</v>
       </c>
       <c r="K8">
-        <v>1.035994502557875</v>
+        <v>1.045321571913363</v>
       </c>
       <c r="L8">
-        <v>1.034392640420901</v>
+        <v>1.051915431463577</v>
       </c>
       <c r="M8">
-        <v>1.041239436163594</v>
+        <v>1.058162692287238</v>
       </c>
       <c r="N8">
-        <v>1.012878488398554</v>
+        <v>1.017673918627285</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9957422416748546</v>
+        <v>1.034131304176424</v>
       </c>
       <c r="D9">
-        <v>1.017766580974281</v>
+        <v>1.041019829043407</v>
       </c>
       <c r="E9">
-        <v>1.014542604298181</v>
+        <v>1.047213466771506</v>
       </c>
       <c r="F9">
-        <v>1.021371033289767</v>
+        <v>1.053458572650583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042840807641201</v>
+        <v>1.03395445699935</v>
       </c>
       <c r="J9">
-        <v>1.021446253487284</v>
+        <v>1.039942340552499</v>
       </c>
       <c r="K9">
-        <v>1.030577837350235</v>
+        <v>1.044166117980776</v>
       </c>
       <c r="L9">
-        <v>1.027404063279104</v>
+        <v>1.050339893507493</v>
       </c>
       <c r="M9">
-        <v>1.034126641356745</v>
+        <v>1.056565230709326</v>
       </c>
       <c r="N9">
-        <v>1.010880830545389</v>
+        <v>1.017238415696462</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9886731253034124</v>
+        <v>1.032724874821993</v>
       </c>
       <c r="D10">
-        <v>1.012641239486739</v>
+        <v>1.039962917772947</v>
       </c>
       <c r="E10">
-        <v>1.008317690972014</v>
+        <v>1.045880867282077</v>
       </c>
       <c r="F10">
-        <v>1.015070744115508</v>
+        <v>1.052112955100405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041338129799728</v>
+        <v>1.033756727040704</v>
       </c>
       <c r="J10">
-        <v>1.017343463663063</v>
+        <v>1.039079441203681</v>
       </c>
       <c r="K10">
-        <v>1.026785942863286</v>
+        <v>1.043394416806253</v>
       </c>
       <c r="L10">
-        <v>1.022538373545736</v>
+        <v>1.049291530207883</v>
       </c>
       <c r="M10">
-        <v>1.029173120608196</v>
+        <v>1.055501954837132</v>
       </c>
       <c r="N10">
-        <v>1.009485067761816</v>
+        <v>1.016947876568971</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9855322433515465</v>
+        <v>1.03211675625135</v>
       </c>
       <c r="D11">
-        <v>1.010368953270732</v>
+        <v>1.039505790028176</v>
       </c>
       <c r="E11">
-        <v>1.005560541573467</v>
+        <v>1.045305120711513</v>
       </c>
       <c r="F11">
-        <v>1.012279864698429</v>
+        <v>1.051531501049963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040658605304701</v>
+        <v>1.033669622705145</v>
       </c>
       <c r="J11">
-        <v>1.01551953456438</v>
+        <v>1.038705901107579</v>
       </c>
       <c r="K11">
-        <v>1.025097940153095</v>
+        <v>1.043059945507665</v>
       </c>
       <c r="L11">
-        <v>1.020378350602502</v>
+        <v>1.04883806797594</v>
       </c>
       <c r="M11">
-        <v>1.026973857783313</v>
+        <v>1.055041965854423</v>
       </c>
       <c r="N11">
-        <v>1.008864331156755</v>
+        <v>1.016822027207195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9843529415391625</v>
+        <v>1.031891006621841</v>
       </c>
       <c r="D12">
-        <v>1.009516605327051</v>
+        <v>1.039336072500767</v>
       </c>
       <c r="E12">
-        <v>1.004526675035879</v>
+        <v>1.045091456449397</v>
       </c>
       <c r="F12">
-        <v>1.011233304331062</v>
+        <v>1.051315706240619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040401735674257</v>
+        <v>1.033637045624505</v>
       </c>
       <c r="J12">
-        <v>1.01483459956889</v>
+        <v>1.03856716802285</v>
       </c>
       <c r="K12">
-        <v>1.024463725447731</v>
+        <v>1.042935661197267</v>
       </c>
       <c r="L12">
-        <v>1.01956766192746</v>
+        <v>1.0486697063174</v>
       </c>
       <c r="M12">
-        <v>1.026148410614913</v>
+        <v>1.054871169504819</v>
       </c>
       <c r="N12">
-        <v>1.008631196112946</v>
+        <v>1.016775274989254</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9846064883154416</v>
+        <v>1.031939424658821</v>
       </c>
       <c r="D13">
-        <v>1.009699819360797</v>
+        <v>1.039372473836282</v>
       </c>
       <c r="E13">
-        <v>1.004748891398072</v>
+        <v>1.045137279368998</v>
       </c>
       <c r="F13">
-        <v>1.011458251044212</v>
+        <v>1.05136198664548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040457039245355</v>
+        <v>1.033644043584777</v>
       </c>
       <c r="J13">
-        <v>1.014981862883593</v>
+        <v>1.038596925982427</v>
       </c>
       <c r="K13">
-        <v>1.024600098040951</v>
+        <v>1.042962322700652</v>
       </c>
       <c r="L13">
-        <v>1.019741941989403</v>
+        <v>1.04870581707538</v>
       </c>
       <c r="M13">
-        <v>1.026325864731139</v>
+        <v>1.054907802980101</v>
       </c>
       <c r="N13">
-        <v>1.008681322283218</v>
+        <v>1.016785303770316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9854350235216507</v>
+        <v>1.032098093002402</v>
       </c>
       <c r="D14">
-        <v>1.01029866980187</v>
+        <v>1.039491759481323</v>
       </c>
       <c r="E14">
-        <v>1.005475283298661</v>
+        <v>1.045287455196884</v>
       </c>
       <c r="F14">
-        <v>1.01219356051897</v>
+        <v>1.051513659638156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040637464218485</v>
+        <v>1.033666934412078</v>
       </c>
       <c r="J14">
-        <v>1.015463071488598</v>
+        <v>1.038694433047485</v>
       </c>
       <c r="K14">
-        <v>1.025045664706422</v>
+        <v>1.043049673074889</v>
       </c>
       <c r="L14">
-        <v>1.020311511616672</v>
+        <v>1.048824149622851</v>
       </c>
       <c r="M14">
-        <v>1.026905802598615</v>
+        <v>1.055027846460009</v>
       </c>
       <c r="N14">
-        <v>1.008845113129613</v>
+        <v>1.016818162777371</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.985943817064738</v>
+        <v>1.032195871425974</v>
       </c>
       <c r="D15">
-        <v>1.010666527746759</v>
+        <v>1.039565265964348</v>
       </c>
       <c r="E15">
-        <v>1.005921532467895</v>
+        <v>1.045380009191367</v>
       </c>
       <c r="F15">
-        <v>1.012645282208207</v>
+        <v>1.051607134691305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040748034487561</v>
+        <v>1.033681008720568</v>
       </c>
       <c r="J15">
-        <v>1.015758563156757</v>
+        <v>1.038754512568244</v>
       </c>
       <c r="K15">
-        <v>1.025319227915225</v>
+        <v>1.043103486361912</v>
       </c>
       <c r="L15">
-        <v>1.020661322867565</v>
+        <v>1.048897068111751</v>
       </c>
       <c r="M15">
-        <v>1.027261977763769</v>
+        <v>1.055101817739678</v>
       </c>
       <c r="N15">
-        <v>1.008945686745461</v>
+        <v>1.016838407493076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9888798386078522</v>
+        <v>1.032765252185323</v>
       </c>
       <c r="D16">
-        <v>1.012790897178097</v>
+        <v>1.039993266972766</v>
       </c>
       <c r="E16">
-        <v>1.008499334410697</v>
+        <v>1.045919104750485</v>
       </c>
       <c r="F16">
-        <v>1.015254603017359</v>
+        <v>1.052151569874343</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041382608847449</v>
+        <v>1.033762476612023</v>
       </c>
       <c r="J16">
-        <v>1.017463485919315</v>
+        <v>1.039104234057119</v>
       </c>
       <c r="K16">
-        <v>1.026896974585702</v>
+        <v>1.043416607936916</v>
       </c>
       <c r="L16">
-        <v>1.022680575902941</v>
+        <v>1.049321635360722</v>
       </c>
       <c r="M16">
-        <v>1.029317901597892</v>
+        <v>1.055532491691094</v>
       </c>
       <c r="N16">
-        <v>1.009525910242751</v>
+        <v>1.016956227887915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906996994126364</v>
+        <v>1.033122644757253</v>
       </c>
       <c r="D17">
-        <v>1.014109026410453</v>
+        <v>1.040261881583689</v>
       </c>
       <c r="E17">
-        <v>1.010099477160192</v>
+        <v>1.046257608437438</v>
       </c>
       <c r="F17">
-        <v>1.016874223711191</v>
+        <v>1.052493404119664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041772846835184</v>
+        <v>1.033813181855312</v>
       </c>
       <c r="J17">
-        <v>1.018520026300589</v>
+        <v>1.039323632972692</v>
       </c>
       <c r="K17">
-        <v>1.027874114483774</v>
+        <v>1.043612936137026</v>
       </c>
       <c r="L17">
-        <v>1.023932713280602</v>
+        <v>1.049588086274417</v>
       </c>
       <c r="M17">
-        <v>1.03059271699458</v>
+        <v>1.055802754623384</v>
       </c>
       <c r="N17">
-        <v>1.009885414635538</v>
+        <v>1.017030122045395</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9917535283399456</v>
+        <v>1.033331190099823</v>
       </c>
       <c r="D18">
-        <v>1.014872782576071</v>
+        <v>1.04041861017651</v>
       </c>
       <c r="E18">
-        <v>1.011026891101011</v>
+        <v>1.046455175088089</v>
       </c>
       <c r="F18">
-        <v>1.017812893528653</v>
+        <v>1.052692906614787</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041997691079142</v>
+        <v>1.033842613952336</v>
       </c>
       <c r="J18">
-        <v>1.019131738668068</v>
+        <v>1.039451614316806</v>
       </c>
       <c r="K18">
-        <v>1.0284396374916</v>
+        <v>1.043727420134961</v>
       </c>
       <c r="L18">
-        <v>1.024657962433292</v>
+        <v>1.04974354938261</v>
       </c>
       <c r="M18">
-        <v>1.031331077351971</v>
+        <v>1.055960434505777</v>
       </c>
       <c r="N18">
-        <v>1.010093536375032</v>
+        <v>1.017073218981555</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9921115752015378</v>
+        <v>1.033402312932486</v>
       </c>
       <c r="D19">
-        <v>1.015132351544363</v>
+        <v>1.04047205904617</v>
       </c>
       <c r="E19">
-        <v>1.011342124447316</v>
+        <v>1.046522561052434</v>
       </c>
       <c r="F19">
-        <v>1.018131947011493</v>
+        <v>1.052760951494253</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042073890251586</v>
+        <v>1.03385262519328</v>
       </c>
       <c r="J19">
-        <v>1.01933955462975</v>
+        <v>1.039495254252431</v>
       </c>
       <c r="K19">
-        <v>1.028631724018837</v>
+        <v>1.043766450937564</v>
       </c>
       <c r="L19">
-        <v>1.02490439938353</v>
+        <v>1.049796566180507</v>
       </c>
       <c r="M19">
-        <v>1.031581965169417</v>
+        <v>1.056014206025595</v>
       </c>
       <c r="N19">
-        <v>1.010164237183573</v>
+        <v>1.017087913184155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9905052428535799</v>
+        <v>1.033084291187594</v>
       </c>
       <c r="D20">
-        <v>1.013968132253414</v>
+        <v>1.040233056569958</v>
       </c>
       <c r="E20">
-        <v>1.009928412827926</v>
+        <v>1.046221277442521</v>
       </c>
       <c r="F20">
-        <v>1.016701080476587</v>
+        <v>1.052456716491656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041731265926051</v>
+        <v>1.033807756492205</v>
       </c>
       <c r="J20">
-        <v>1.018407142412049</v>
+        <v>1.039300092536954</v>
       </c>
       <c r="K20">
-        <v>1.02776973648675</v>
+        <v>1.043591875168398</v>
       </c>
       <c r="L20">
-        <v>1.023798901089515</v>
+        <v>1.049559493762445</v>
       </c>
       <c r="M20">
-        <v>1.030456483727732</v>
+        <v>1.055773753811561</v>
       </c>
       <c r="N20">
-        <v>1.009847006478112</v>
+        <v>1.017022194340635</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9851913947277716</v>
+        <v>1.032051365456869</v>
       </c>
       <c r="D21">
-        <v>1.010122555938749</v>
+        <v>1.039456630608194</v>
       </c>
       <c r="E21">
-        <v>1.005261651702632</v>
+        <v>1.04524322679949</v>
       </c>
       <c r="F21">
-        <v>1.011977307481833</v>
+        <v>1.051468990653323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040584457864371</v>
+        <v>1.03366019977547</v>
       </c>
       <c r="J21">
-        <v>1.015321575830742</v>
+        <v>1.038665719186754</v>
       </c>
       <c r="K21">
-        <v>1.024914658037902</v>
+        <v>1.043023951848178</v>
       </c>
       <c r="L21">
-        <v>1.02014402146486</v>
+        <v>1.048789301571881</v>
       </c>
       <c r="M21">
-        <v>1.026735264323564</v>
+        <v>1.05499249486759</v>
       </c>
       <c r="N21">
-        <v>1.008796952535578</v>
+        <v>1.016808486785264</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9817769014767038</v>
+        <v>1.031402692361077</v>
       </c>
       <c r="D22">
-        <v>1.007656359875053</v>
+        <v>1.038968924881415</v>
       </c>
       <c r="E22">
-        <v>1.002270877998303</v>
+        <v>1.044629408765854</v>
       </c>
       <c r="F22">
-        <v>1.008949733096439</v>
+        <v>1.050849028521141</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039837517057232</v>
+        <v>1.033566137110871</v>
       </c>
       <c r="J22">
-        <v>1.013338297690791</v>
+        <v>1.038266958590832</v>
       </c>
       <c r="K22">
-        <v>1.023077653480263</v>
+        <v>1.04266660588724</v>
       </c>
       <c r="L22">
-        <v>1.017797482185507</v>
+        <v>1.048305482344607</v>
       </c>
       <c r="M22">
-        <v>1.024345954778085</v>
+        <v>1.054501657601492</v>
       </c>
       <c r="N22">
-        <v>1.008121838517832</v>
+        <v>1.016674084936745</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9835941750207101</v>
+        <v>1.031746492986253</v>
       </c>
       <c r="D23">
-        <v>1.008968444205157</v>
+        <v>1.039227422365611</v>
       </c>
       <c r="E23">
-        <v>1.003861871439001</v>
+        <v>1.044954698481035</v>
       </c>
       <c r="F23">
-        <v>1.010560326106447</v>
+        <v>1.051177581091052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04023598444225</v>
+        <v>1.033616123387717</v>
       </c>
       <c r="J23">
-        <v>1.014393885832859</v>
+        <v>1.038478339724067</v>
       </c>
       <c r="K23">
-        <v>1.024055558373473</v>
+        <v>1.042856066924464</v>
       </c>
       <c r="L23">
-        <v>1.019046162546646</v>
+        <v>1.048561922736824</v>
       </c>
       <c r="M23">
-        <v>1.025617409416397</v>
+        <v>1.054761824043843</v>
       </c>
       <c r="N23">
-        <v>1.008481179636994</v>
+        <v>1.016745337107634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9905931330438491</v>
+        <v>1.033101621254458</v>
       </c>
       <c r="D24">
-        <v>1.014031811950763</v>
+        <v>1.040246081197886</v>
       </c>
       <c r="E24">
-        <v>1.010005727704425</v>
+        <v>1.046237693474872</v>
       </c>
       <c r="F24">
-        <v>1.01677933504486</v>
+        <v>1.052473293692211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041750063115212</v>
+        <v>1.033810208423451</v>
       </c>
       <c r="J24">
-        <v>1.018458163818882</v>
+        <v>1.039310729416831</v>
       </c>
       <c r="K24">
-        <v>1.027816914067932</v>
+        <v>1.043601391809237</v>
       </c>
       <c r="L24">
-        <v>1.023859380796648</v>
+        <v>1.049572413343412</v>
       </c>
       <c r="M24">
-        <v>1.030518057774722</v>
+        <v>1.055786857906404</v>
       </c>
       <c r="N24">
-        <v>1.009864366318595</v>
+        <v>1.017025776542435</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9984162659967057</v>
+        <v>1.034677474544414</v>
       </c>
       <c r="D25">
-        <v>1.019709144580376</v>
+        <v>1.041430142608781</v>
       </c>
       <c r="E25">
-        <v>1.016904435449447</v>
+        <v>1.047731363679726</v>
       </c>
       <c r="F25">
-        <v>1.023761127387541</v>
+        <v>1.0539814544314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043398601517649</v>
+        <v>1.034029805314178</v>
       </c>
       <c r="J25">
-        <v>1.022997046912152</v>
+        <v>1.040277046389037</v>
       </c>
       <c r="K25">
-        <v>1.032009016214045</v>
+        <v>1.044465082446056</v>
       </c>
       <c r="L25">
-        <v>1.029245879467702</v>
+        <v>1.050746862212095</v>
       </c>
       <c r="M25">
-        <v>1.036001449594054</v>
+        <v>1.056977919843576</v>
       </c>
       <c r="N25">
-        <v>1.011408174132639</v>
+        <v>1.017351041537499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03593698750209</v>
+        <v>1.004436227007248</v>
       </c>
       <c r="D2">
-        <v>1.042376069805158</v>
+        <v>1.024089465361966</v>
       </c>
       <c r="E2">
-        <v>1.048926541866687</v>
+        <v>1.022236273036304</v>
       </c>
       <c r="F2">
-        <v>1.055187971965981</v>
+        <v>1.02915594370675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034200394410536</v>
+        <v>1.044630312581142</v>
       </c>
       <c r="J2">
-        <v>1.041048038162894</v>
+        <v>1.026485056090636</v>
       </c>
       <c r="K2">
-        <v>1.045152932583596</v>
+        <v>1.035223094782638</v>
       </c>
       <c r="L2">
-        <v>1.051685025127399</v>
+        <v>1.0333942752146</v>
       </c>
       <c r="M2">
-        <v>1.057929117875372</v>
+        <v>1.040223500776307</v>
       </c>
       <c r="N2">
-        <v>1.017610318966543</v>
+        <v>1.012593682177801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036853001531433</v>
+        <v>1.008689408996658</v>
       </c>
       <c r="D3">
-        <v>1.043063750560743</v>
+        <v>1.027189706322069</v>
       </c>
       <c r="E3">
-        <v>1.049796540051587</v>
+        <v>1.026015871641021</v>
       </c>
       <c r="F3">
-        <v>1.056066075677844</v>
+        <v>1.03297938249567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034321600963353</v>
+        <v>1.045478365946284</v>
       </c>
       <c r="J3">
-        <v>1.04160797694474</v>
+        <v>1.02894596262544</v>
       </c>
       <c r="K3">
-        <v>1.045651755013737</v>
+        <v>1.037486119440963</v>
       </c>
       <c r="L3">
-        <v>1.052367017186028</v>
+        <v>1.036326353619685</v>
       </c>
       <c r="M3">
-        <v>1.058620448208254</v>
+        <v>1.04320698350731</v>
       </c>
       <c r="N3">
-        <v>1.017798480631754</v>
+        <v>1.013429525233744</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037446408948675</v>
+        <v>1.011389907276733</v>
       </c>
       <c r="D4">
-        <v>1.04350911122926</v>
+        <v>1.029160324381322</v>
       </c>
       <c r="E4">
-        <v>1.050360492172367</v>
+        <v>1.0284212378073</v>
       </c>
       <c r="F4">
-        <v>1.056635213038827</v>
+        <v>1.03541224918807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034398796860583</v>
+        <v>1.046006293860389</v>
       </c>
       <c r="J4">
-        <v>1.04197034835639</v>
+        <v>1.03050667832924</v>
       </c>
       <c r="K4">
-        <v>1.045974233307898</v>
+        <v>1.038919101358042</v>
       </c>
       <c r="L4">
-        <v>1.052808675002547</v>
+        <v>1.038188330196101</v>
       </c>
       <c r="M4">
-        <v>1.059068089554908</v>
+        <v>1.045101270253282</v>
       </c>
       <c r="N4">
-        <v>1.017920186398779</v>
+        <v>1.013959331891618</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037696040117263</v>
+        <v>1.012513256249506</v>
       </c>
       <c r="D5">
-        <v>1.043696431417422</v>
+        <v>1.029980524324178</v>
       </c>
       <c r="E5">
-        <v>1.050597816603435</v>
+        <v>1.029423116031814</v>
       </c>
       <c r="F5">
-        <v>1.056874703015495</v>
+        <v>1.036425482022796</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034430954255274</v>
+        <v>1.046223333571932</v>
       </c>
       <c r="J5">
-        <v>1.042122700950344</v>
+        <v>1.031155438115719</v>
       </c>
       <c r="K5">
-        <v>1.046109731749914</v>
+        <v>1.039514213176394</v>
       </c>
       <c r="L5">
-        <v>1.052994433540726</v>
+        <v>1.038962906743011</v>
       </c>
       <c r="M5">
-        <v>1.059256349378941</v>
+        <v>1.045889203365081</v>
       </c>
       <c r="N5">
-        <v>1.017971339700079</v>
+        <v>1.014179489903436</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037737963790832</v>
+        <v>1.012701182902401</v>
       </c>
       <c r="D6">
-        <v>1.043727888563547</v>
+        <v>1.03011776256537</v>
       </c>
       <c r="E6">
-        <v>1.050637678383905</v>
+        <v>1.029590796907252</v>
       </c>
       <c r="F6">
-        <v>1.056914927558384</v>
+        <v>1.03659505729913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034436336261961</v>
+        <v>1.046259490426129</v>
       </c>
       <c r="J6">
-        <v>1.042148282270443</v>
+        <v>1.031263941869408</v>
       </c>
       <c r="K6">
-        <v>1.046132478309454</v>
+        <v>1.039613711569138</v>
       </c>
       <c r="L6">
-        <v>1.053025628195289</v>
+        <v>1.039092487755056</v>
       </c>
       <c r="M6">
-        <v>1.059287963176081</v>
+        <v>1.046021013749366</v>
       </c>
       <c r="N6">
-        <v>1.017979927859151</v>
+        <v>1.014216306520208</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037449743894952</v>
+        <v>1.011404963906948</v>
       </c>
       <c r="D7">
-        <v>1.043511613857024</v>
+        <v>1.029171316033448</v>
       </c>
       <c r="E7">
-        <v>1.050363662376176</v>
+        <v>1.0284346612463</v>
       </c>
       <c r="F7">
-        <v>1.056638412235151</v>
+        <v>1.035425825158458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034399227712168</v>
+        <v>1.046009213106309</v>
       </c>
       <c r="J7">
-        <v>1.041972384054893</v>
+        <v>1.030515375752942</v>
       </c>
       <c r="K7">
-        <v>1.04597604412696</v>
+        <v>1.038927081762505</v>
       </c>
       <c r="L7">
-        <v>1.052811156782658</v>
+        <v>1.038198712020979</v>
       </c>
       <c r="M7">
-        <v>1.059070604813176</v>
+        <v>1.045111831438043</v>
       </c>
       <c r="N7">
-        <v>1.017920869958641</v>
+        <v>1.013962283671803</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036246416084429</v>
+        <v>1.005884546605319</v>
       </c>
       <c r="D8">
-        <v>1.042608393971097</v>
+        <v>1.025144691941597</v>
       </c>
       <c r="E8">
-        <v>1.049220352706584</v>
+        <v>1.023522136916123</v>
       </c>
       <c r="F8">
-        <v>1.055484534402783</v>
+        <v>1.030456803674582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034241611632089</v>
+        <v>1.04492127823014</v>
       </c>
       <c r="J8">
-        <v>1.041237260296055</v>
+        <v>1.027323416929921</v>
       </c>
       <c r="K8">
-        <v>1.045321571913363</v>
+        <v>1.035994502557875</v>
       </c>
       <c r="L8">
-        <v>1.051915431463577</v>
+        <v>1.034392640420901</v>
       </c>
       <c r="M8">
-        <v>1.058162692287238</v>
+        <v>1.041239436163594</v>
       </c>
       <c r="N8">
-        <v>1.017673918627285</v>
+        <v>1.012878488398554</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034131304176424</v>
+        <v>0.9957422416748534</v>
       </c>
       <c r="D9">
-        <v>1.041019829043407</v>
+        <v>1.01776658097428</v>
       </c>
       <c r="E9">
-        <v>1.047213466771506</v>
+        <v>1.01454260429818</v>
       </c>
       <c r="F9">
-        <v>1.053458572650583</v>
+        <v>1.021371033289766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03395445699935</v>
+        <v>1.0428408076412</v>
       </c>
       <c r="J9">
-        <v>1.039942340552499</v>
+        <v>1.021446253487283</v>
       </c>
       <c r="K9">
-        <v>1.044166117980776</v>
+        <v>1.030577837350234</v>
       </c>
       <c r="L9">
-        <v>1.050339893507493</v>
+        <v>1.027404063279102</v>
       </c>
       <c r="M9">
-        <v>1.056565230709326</v>
+        <v>1.034126641356745</v>
       </c>
       <c r="N9">
-        <v>1.017238415696462</v>
+        <v>1.010880830545388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032724874821993</v>
+        <v>0.9886731253034123</v>
       </c>
       <c r="D10">
-        <v>1.039962917772947</v>
+        <v>1.012641239486739</v>
       </c>
       <c r="E10">
-        <v>1.045880867282077</v>
+        <v>1.008317690972014</v>
       </c>
       <c r="F10">
-        <v>1.052112955100405</v>
+        <v>1.015070744115508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033756727040704</v>
+        <v>1.041338129799728</v>
       </c>
       <c r="J10">
-        <v>1.039079441203681</v>
+        <v>1.017343463663063</v>
       </c>
       <c r="K10">
-        <v>1.043394416806253</v>
+        <v>1.026785942863286</v>
       </c>
       <c r="L10">
-        <v>1.049291530207883</v>
+        <v>1.022538373545736</v>
       </c>
       <c r="M10">
-        <v>1.055501954837132</v>
+        <v>1.029173120608196</v>
       </c>
       <c r="N10">
-        <v>1.016947876568971</v>
+        <v>1.009485067761816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03211675625135</v>
+        <v>0.985532243351547</v>
       </c>
       <c r="D11">
-        <v>1.039505790028176</v>
+        <v>1.010368953270733</v>
       </c>
       <c r="E11">
-        <v>1.045305120711513</v>
+        <v>1.005560541573467</v>
       </c>
       <c r="F11">
-        <v>1.051531501049963</v>
+        <v>1.01227986469843</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033669622705145</v>
+        <v>1.040658605304701</v>
       </c>
       <c r="J11">
-        <v>1.038705901107579</v>
+        <v>1.01551953456438</v>
       </c>
       <c r="K11">
-        <v>1.043059945507665</v>
+        <v>1.025097940153096</v>
       </c>
       <c r="L11">
-        <v>1.04883806797594</v>
+        <v>1.020378350602502</v>
       </c>
       <c r="M11">
-        <v>1.055041965854423</v>
+        <v>1.026973857783314</v>
       </c>
       <c r="N11">
-        <v>1.016822027207195</v>
+        <v>1.008864331156755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031891006621841</v>
+        <v>0.9843529415391629</v>
       </c>
       <c r="D12">
-        <v>1.039336072500767</v>
+        <v>1.009516605327051</v>
       </c>
       <c r="E12">
-        <v>1.045091456449397</v>
+        <v>1.004526675035879</v>
       </c>
       <c r="F12">
-        <v>1.051315706240619</v>
+        <v>1.011233304331062</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033637045624505</v>
+        <v>1.040401735674257</v>
       </c>
       <c r="J12">
-        <v>1.03856716802285</v>
+        <v>1.01483459956889</v>
       </c>
       <c r="K12">
-        <v>1.042935661197267</v>
+        <v>1.024463725447731</v>
       </c>
       <c r="L12">
-        <v>1.0486697063174</v>
+        <v>1.01956766192746</v>
       </c>
       <c r="M12">
-        <v>1.054871169504819</v>
+        <v>1.026148410614913</v>
       </c>
       <c r="N12">
-        <v>1.016775274989254</v>
+        <v>1.008631196112946</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031939424658821</v>
+        <v>0.9846064883154416</v>
       </c>
       <c r="D13">
-        <v>1.039372473836282</v>
+        <v>1.009699819360797</v>
       </c>
       <c r="E13">
-        <v>1.045137279368998</v>
+        <v>1.004748891398072</v>
       </c>
       <c r="F13">
-        <v>1.05136198664548</v>
+        <v>1.011458251044212</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033644043584777</v>
+        <v>1.040457039245355</v>
       </c>
       <c r="J13">
-        <v>1.038596925982427</v>
+        <v>1.014981862883593</v>
       </c>
       <c r="K13">
-        <v>1.042962322700652</v>
+        <v>1.024600098040951</v>
       </c>
       <c r="L13">
-        <v>1.04870581707538</v>
+        <v>1.019741941989403</v>
       </c>
       <c r="M13">
-        <v>1.054907802980101</v>
+        <v>1.026325864731139</v>
       </c>
       <c r="N13">
-        <v>1.016785303770316</v>
+        <v>1.008681322283218</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032098093002402</v>
+        <v>0.9854350235216494</v>
       </c>
       <c r="D14">
-        <v>1.039491759481323</v>
+        <v>1.010298669801869</v>
       </c>
       <c r="E14">
-        <v>1.045287455196884</v>
+        <v>1.005475283298659</v>
       </c>
       <c r="F14">
-        <v>1.051513659638156</v>
+        <v>1.012193560518969</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033666934412078</v>
+        <v>1.040637464218484</v>
       </c>
       <c r="J14">
-        <v>1.038694433047485</v>
+        <v>1.015463071488597</v>
       </c>
       <c r="K14">
-        <v>1.043049673074889</v>
+        <v>1.025045664706421</v>
       </c>
       <c r="L14">
-        <v>1.048824149622851</v>
+        <v>1.020311511616671</v>
       </c>
       <c r="M14">
-        <v>1.055027846460009</v>
+        <v>1.026905802598614</v>
       </c>
       <c r="N14">
-        <v>1.016818162777371</v>
+        <v>1.008845113129613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032195871425974</v>
+        <v>0.9859438170647372</v>
       </c>
       <c r="D15">
-        <v>1.039565265964348</v>
+        <v>1.010666527746759</v>
       </c>
       <c r="E15">
-        <v>1.045380009191367</v>
+        <v>1.005921532467895</v>
       </c>
       <c r="F15">
-        <v>1.051607134691305</v>
+        <v>1.012645282208207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033681008720568</v>
+        <v>1.040748034487561</v>
       </c>
       <c r="J15">
-        <v>1.038754512568244</v>
+        <v>1.015758563156757</v>
       </c>
       <c r="K15">
-        <v>1.043103486361912</v>
+        <v>1.025319227915225</v>
       </c>
       <c r="L15">
-        <v>1.048897068111751</v>
+        <v>1.020661322867565</v>
       </c>
       <c r="M15">
-        <v>1.055101817739678</v>
+        <v>1.027261977763769</v>
       </c>
       <c r="N15">
-        <v>1.016838407493076</v>
+        <v>1.008945686745461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032765252185323</v>
+        <v>0.988879838607852</v>
       </c>
       <c r="D16">
-        <v>1.039993266972766</v>
+        <v>1.012790897178097</v>
       </c>
       <c r="E16">
-        <v>1.045919104750485</v>
+        <v>1.008499334410696</v>
       </c>
       <c r="F16">
-        <v>1.052151569874343</v>
+        <v>1.015254603017358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033762476612023</v>
+        <v>1.041382608847448</v>
       </c>
       <c r="J16">
-        <v>1.039104234057119</v>
+        <v>1.017463485919314</v>
       </c>
       <c r="K16">
-        <v>1.043416607936916</v>
+        <v>1.026896974585701</v>
       </c>
       <c r="L16">
-        <v>1.049321635360722</v>
+        <v>1.02268057590294</v>
       </c>
       <c r="M16">
-        <v>1.055532491691094</v>
+        <v>1.029317901597892</v>
       </c>
       <c r="N16">
-        <v>1.016956227887915</v>
+        <v>1.009525910242751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033122644757253</v>
+        <v>0.9906996994126352</v>
       </c>
       <c r="D17">
-        <v>1.040261881583689</v>
+        <v>1.014109026410452</v>
       </c>
       <c r="E17">
-        <v>1.046257608437438</v>
+        <v>1.010099477160191</v>
       </c>
       <c r="F17">
-        <v>1.052493404119664</v>
+        <v>1.01687422371119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033813181855312</v>
+        <v>1.041772846835184</v>
       </c>
       <c r="J17">
-        <v>1.039323632972692</v>
+        <v>1.018520026300588</v>
       </c>
       <c r="K17">
-        <v>1.043612936137026</v>
+        <v>1.027874114483773</v>
       </c>
       <c r="L17">
-        <v>1.049588086274417</v>
+        <v>1.023932713280601</v>
       </c>
       <c r="M17">
-        <v>1.055802754623384</v>
+        <v>1.030592716994579</v>
       </c>
       <c r="N17">
-        <v>1.017030122045395</v>
+        <v>1.009885414635538</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033331190099823</v>
+        <v>0.9917535283399455</v>
       </c>
       <c r="D18">
-        <v>1.04041861017651</v>
+        <v>1.014872782576071</v>
       </c>
       <c r="E18">
-        <v>1.046455175088089</v>
+        <v>1.011026891101011</v>
       </c>
       <c r="F18">
-        <v>1.052692906614787</v>
+        <v>1.017812893528653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033842613952336</v>
+        <v>1.041997691079142</v>
       </c>
       <c r="J18">
-        <v>1.039451614316806</v>
+        <v>1.019131738668067</v>
       </c>
       <c r="K18">
-        <v>1.043727420134961</v>
+        <v>1.0284396374916</v>
       </c>
       <c r="L18">
-        <v>1.04974354938261</v>
+        <v>1.024657962433292</v>
       </c>
       <c r="M18">
-        <v>1.055960434505777</v>
+        <v>1.031331077351971</v>
       </c>
       <c r="N18">
-        <v>1.017073218981555</v>
+        <v>1.010093536375032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033402312932486</v>
+        <v>0.9921115752015386</v>
       </c>
       <c r="D19">
-        <v>1.04047205904617</v>
+        <v>1.015132351544364</v>
       </c>
       <c r="E19">
-        <v>1.046522561052434</v>
+        <v>1.011342124447317</v>
       </c>
       <c r="F19">
-        <v>1.052760951494253</v>
+        <v>1.018131947011494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03385262519328</v>
+        <v>1.042073890251587</v>
       </c>
       <c r="J19">
-        <v>1.039495254252431</v>
+        <v>1.01933955462975</v>
       </c>
       <c r="K19">
-        <v>1.043766450937564</v>
+        <v>1.028631724018838</v>
       </c>
       <c r="L19">
-        <v>1.049796566180507</v>
+        <v>1.024904399383531</v>
       </c>
       <c r="M19">
-        <v>1.056014206025595</v>
+        <v>1.031581965169418</v>
       </c>
       <c r="N19">
-        <v>1.017087913184155</v>
+        <v>1.010164237183574</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033084291187594</v>
+        <v>0.9905052428535793</v>
       </c>
       <c r="D20">
-        <v>1.040233056569958</v>
+        <v>1.013968132253414</v>
       </c>
       <c r="E20">
-        <v>1.046221277442521</v>
+        <v>1.009928412827926</v>
       </c>
       <c r="F20">
-        <v>1.052456716491656</v>
+        <v>1.016701080476587</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033807756492205</v>
+        <v>1.041731265926051</v>
       </c>
       <c r="J20">
-        <v>1.039300092536954</v>
+        <v>1.018407142412049</v>
       </c>
       <c r="K20">
-        <v>1.043591875168398</v>
+        <v>1.02776973648675</v>
       </c>
       <c r="L20">
-        <v>1.049559493762445</v>
+        <v>1.023798901089515</v>
       </c>
       <c r="M20">
-        <v>1.055773753811561</v>
+        <v>1.030456483727732</v>
       </c>
       <c r="N20">
-        <v>1.017022194340635</v>
+        <v>1.009847006478112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032051365456869</v>
+        <v>0.9851913947277721</v>
       </c>
       <c r="D21">
-        <v>1.039456630608194</v>
+        <v>1.010122555938749</v>
       </c>
       <c r="E21">
-        <v>1.04524322679949</v>
+        <v>1.005261651702633</v>
       </c>
       <c r="F21">
-        <v>1.051468990653323</v>
+        <v>1.011977307481834</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03366019977547</v>
+        <v>1.040584457864371</v>
       </c>
       <c r="J21">
-        <v>1.038665719186754</v>
+        <v>1.015321575830742</v>
       </c>
       <c r="K21">
-        <v>1.043023951848178</v>
+        <v>1.024914658037902</v>
       </c>
       <c r="L21">
-        <v>1.048789301571881</v>
+        <v>1.02014402146486</v>
       </c>
       <c r="M21">
-        <v>1.05499249486759</v>
+        <v>1.026735264323564</v>
       </c>
       <c r="N21">
-        <v>1.016808486785264</v>
+        <v>1.008796952535578</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031402692361077</v>
+        <v>0.9817769014767037</v>
       </c>
       <c r="D22">
-        <v>1.038968924881415</v>
+        <v>1.007656359875053</v>
       </c>
       <c r="E22">
-        <v>1.044629408765854</v>
+        <v>1.002270877998303</v>
       </c>
       <c r="F22">
-        <v>1.050849028521141</v>
+        <v>1.008949733096439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033566137110871</v>
+        <v>1.039837517057232</v>
       </c>
       <c r="J22">
-        <v>1.038266958590832</v>
+        <v>1.01333829769079</v>
       </c>
       <c r="K22">
-        <v>1.04266660588724</v>
+        <v>1.023077653480263</v>
       </c>
       <c r="L22">
-        <v>1.048305482344607</v>
+        <v>1.017797482185507</v>
       </c>
       <c r="M22">
-        <v>1.054501657601492</v>
+        <v>1.024345954778085</v>
       </c>
       <c r="N22">
-        <v>1.016674084936745</v>
+        <v>1.008121838517832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031746492986253</v>
+        <v>0.9835941750207098</v>
       </c>
       <c r="D23">
-        <v>1.039227422365611</v>
+        <v>1.008968444205157</v>
       </c>
       <c r="E23">
-        <v>1.044954698481035</v>
+        <v>1.003861871439001</v>
       </c>
       <c r="F23">
-        <v>1.051177581091052</v>
+        <v>1.010560326106446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033616123387717</v>
+        <v>1.04023598444225</v>
       </c>
       <c r="J23">
-        <v>1.038478339724067</v>
+        <v>1.014393885832859</v>
       </c>
       <c r="K23">
-        <v>1.042856066924464</v>
+        <v>1.024055558373473</v>
       </c>
       <c r="L23">
-        <v>1.048561922736824</v>
+        <v>1.019046162546645</v>
       </c>
       <c r="M23">
-        <v>1.054761824043843</v>
+        <v>1.025617409416397</v>
       </c>
       <c r="N23">
-        <v>1.016745337107634</v>
+        <v>1.008481179636994</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033101621254458</v>
+        <v>0.9905931330438491</v>
       </c>
       <c r="D24">
-        <v>1.040246081197886</v>
+        <v>1.014031811950763</v>
       </c>
       <c r="E24">
-        <v>1.046237693474872</v>
+        <v>1.010005727704424</v>
       </c>
       <c r="F24">
-        <v>1.052473293692211</v>
+        <v>1.016779335044859</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033810208423451</v>
+        <v>1.041750063115211</v>
       </c>
       <c r="J24">
-        <v>1.039310729416831</v>
+        <v>1.018458163818882</v>
       </c>
       <c r="K24">
-        <v>1.043601391809237</v>
+        <v>1.027816914067932</v>
       </c>
       <c r="L24">
-        <v>1.049572413343412</v>
+        <v>1.023859380796647</v>
       </c>
       <c r="M24">
-        <v>1.055786857906404</v>
+        <v>1.030518057774721</v>
       </c>
       <c r="N24">
-        <v>1.017025776542435</v>
+        <v>1.009864366318595</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034677474544414</v>
+        <v>0.9984162659967056</v>
       </c>
       <c r="D25">
-        <v>1.041430142608781</v>
+        <v>1.019709144580376</v>
       </c>
       <c r="E25">
-        <v>1.047731363679726</v>
+        <v>1.016904435449447</v>
       </c>
       <c r="F25">
-        <v>1.0539814544314</v>
+        <v>1.023761127387541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034029805314178</v>
+        <v>1.043398601517649</v>
       </c>
       <c r="J25">
-        <v>1.040277046389037</v>
+        <v>1.022997046912151</v>
       </c>
       <c r="K25">
-        <v>1.044465082446056</v>
+        <v>1.032009016214045</v>
       </c>
       <c r="L25">
-        <v>1.050746862212095</v>
+        <v>1.029245879467701</v>
       </c>
       <c r="M25">
-        <v>1.056977919843576</v>
+        <v>1.036001449594054</v>
       </c>
       <c r="N25">
-        <v>1.017351041537499</v>
+        <v>1.011408174132639</v>
       </c>
     </row>
   </sheetData>
